--- a/Fleet_Clusters_All_Species_copy_2023.xlsx
+++ b/Fleet_Clusters_All_Species_copy_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MER2030\Sem 4 AZTI Thesis\Fisheries Data Analysis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F57E85-2E30-41A9-B2BA-340FF5C06E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE447615-074B-42B9-A10B-70C6D1489686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$884</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,10 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J891" sqref="J891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -838,7 +852,7 @@
         <v>64.97</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -870,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -902,7 +916,7 @@
         <v>227.98</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -934,7 +948,7 @@
         <v>8869.27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -966,7 +980,7 @@
         <v>10866.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>3334.79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1044,7 @@
         <v>110.93</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1076,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>2160.1799999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>575.16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1780,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1812,7 @@
         <v>125.36</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1830,7 +1844,7 @@
         <v>8265.9500000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1876,7 @@
         <v>9175.68</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>416.04</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2054,7 +2068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>309.35000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2164,7 @@
         <v>82969.570000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2196,7 @@
         <v>107285.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2228,7 @@
         <v>1842.25</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2260,7 @@
         <v>17580.07</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>12024.82</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +2324,7 @@
         <v>38684</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2356,7 @@
         <v>78202.84</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2388,7 @@
         <v>910021.91</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2406,7 +2420,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2452,7 @@
         <v>196.77</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>9373.75</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2516,7 @@
         <v>115804.03</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2548,7 @@
         <v>7984240.1100000003</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>240398.03</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +2644,7 @@
         <v>107737.1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2662,7 +2676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2694,7 +2708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2758,7 +2772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2868,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2900,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2950,7 +2964,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +2996,7 @@
         <v>10287489</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3060,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3110,7 +3124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3156,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3188,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3220,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3252,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>6467126</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>12896</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3334,7 +3348,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3366,7 +3380,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3398,7 +3412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3444,7 @@
         <v>564695</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3476,7 @@
         <v>150130</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>819070</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>9003935.1300000008</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3558,7 +3572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3604,7 @@
         <v>4169.25</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3636,7 @@
         <v>579.36</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3668,7 @@
         <v>110250</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3686,7 +3700,7 @@
         <v>1114254.53</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>5075.53</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3764,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3782,7 +3796,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3814,7 +3828,7 @@
         <v>6793585.4699999997</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +3860,7 @@
         <v>31952213.25</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3878,7 +3892,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>1395.2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +3956,7 @@
         <v>34215</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3974,7 +3988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4006,7 +4020,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4038,7 +4052,7 @@
         <v>14330</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>7615.65</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4102,7 +4116,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4134,7 +4148,7 @@
         <v>124247.47</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4180,7 @@
         <v>14701.35</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4230,7 +4244,7 @@
         <v>15109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4276,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4294,7 +4308,7 @@
         <v>354333.53</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4340,7 @@
         <v>261859.55</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4358,7 +4372,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4422,7 +4436,7 @@
         <v>321.14999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>5295.44</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4486,7 +4500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4518,7 +4532,7 @@
         <v>155.66</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4564,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4582,7 +4596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +4628,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4646,7 +4660,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4678,7 +4692,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +4724,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4756,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4774,7 +4788,7 @@
         <v>28811.94</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4806,7 +4820,7 @@
         <v>3366.9340000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4838,7 +4852,7 @@
         <v>109246</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4870,7 +4884,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4902,7 +4916,7 @@
         <v>2694.95</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4934,7 +4948,7 @@
         <v>344654</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4966,7 +4980,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4998,7 +5012,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5030,7 +5044,7 @@
         <v>2.3332999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5062,7 +5076,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -5094,7 +5108,7 @@
         <v>16491365.91</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -5126,7 +5140,7 @@
         <v>30499.529600000002</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5172,7 @@
         <v>123559.70540000001</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5222,7 +5236,7 @@
         <v>1714.8215</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -5254,7 +5268,7 @@
         <v>47.166699999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +5300,7 @@
         <v>18036.6819</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5350,7 +5364,7 @@
         <v>31971.240399999999</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5382,7 +5396,7 @@
         <v>279543.98220000003</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5414,7 +5428,7 @@
         <v>959.54</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5446,7 +5460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5478,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5510,7 +5524,7 @@
         <v>844.03</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>21266.178500000002</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5574,7 +5588,7 @@
         <v>5283.13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5606,7 +5620,7 @@
         <v>12677.2801</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5638,7 +5652,7 @@
         <v>5542.8189000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5670,7 +5684,7 @@
         <v>2791637.341</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5702,7 +5716,7 @@
         <v>588229.35190000001</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5734,7 +5748,7 @@
         <v>167274.8199</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>7650.9205000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5798,7 +5812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -5830,7 +5844,7 @@
         <v>8871.0463</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5862,7 +5876,7 @@
         <v>1741.77</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5926,7 +5940,7 @@
         <v>5984.23</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5958,7 +5972,7 @@
         <v>20538.23</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>431.52</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6036,7 @@
         <v>13917.78</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -6054,7 +6068,7 @@
         <v>900113.03</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6086,7 +6100,7 @@
         <v>152485.53</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -6118,7 +6132,7 @@
         <v>8074.75</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -6150,7 +6164,7 @@
         <v>21627</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -6182,7 +6196,7 @@
         <v>337.1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>45494.2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -6246,7 +6260,7 @@
         <v>1431.6</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>37619.5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -6310,7 +6324,7 @@
         <v>63414.5</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6356,7 @@
         <v>370399.5</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -6374,7 +6388,7 @@
         <v>683471.46</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -6406,7 +6420,7 @@
         <v>180724.66</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -6438,7 +6452,7 @@
         <v>3673.65</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -6502,7 +6516,7 @@
         <v>7607.65</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -6534,7 +6548,7 @@
         <v>1316.6</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -6566,7 +6580,7 @@
         <v>8134875.9100000001</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -6598,7 +6612,7 @@
         <v>17437.91</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -6630,7 +6644,7 @@
         <v>64286.6</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +6676,7 @@
         <v>14772.1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -6694,7 +6708,7 @@
         <v>396462.65</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -6726,7 +6740,7 @@
         <v>831075.08</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6772,7 @@
         <v>1157613.99</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6804,7 @@
         <v>4595261.2</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -6822,7 +6836,7 @@
         <v>5874.4</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6868,7 @@
         <v>671502.9</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -6886,7 +6900,7 @@
         <v>100593.75</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +6932,7 @@
         <v>119579.87</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +6964,7 @@
         <v>22252.85</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -6982,7 +6996,7 @@
         <v>145784.16</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -7014,7 +7028,7 @@
         <v>1209535.6499999999</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7060,7 @@
         <v>4524391.4800000004</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -7078,7 +7092,7 @@
         <v>19809.849999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -7110,7 +7124,7 @@
         <v>10429.65</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -7142,7 +7156,7 @@
         <v>62963.38</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -7174,7 +7188,7 @@
         <v>34406.94</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -7206,7 +7220,7 @@
         <v>6761.99</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -7238,7 +7252,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -7270,7 +7284,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -7302,7 +7316,7 @@
         <v>1268.5</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +7348,7 @@
         <v>1338.8</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -7366,7 +7380,7 @@
         <v>18367.7</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7398,7 +7412,7 @@
         <v>19609.72</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -7430,7 +7444,7 @@
         <v>185146.02</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -7462,7 +7476,7 @@
         <v>1661.93</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -7494,7 +7508,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -7526,7 +7540,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -7558,7 +7572,7 @@
         <v>41230.660000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -7590,7 +7604,7 @@
         <v>1267.3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -7622,7 +7636,7 @@
         <v>1088.4000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -7654,7 +7668,7 @@
         <v>6320.7</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -7686,7 +7700,7 @@
         <v>62964.4</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -7718,7 +7732,7 @@
         <v>152635.66</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -7750,7 +7764,7 @@
         <v>77978.240000000005</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -7782,7 +7796,7 @@
         <v>2663.93</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -7814,7 +7828,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -7846,7 +7860,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -7878,7 +7892,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -7910,7 +7924,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -7942,7 +7956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +7988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>66</v>
       </c>
@@ -8006,7 +8020,7 @@
         <v>6763</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>66</v>
       </c>
@@ -8038,7 +8052,7 @@
         <v>28223.33</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>66</v>
       </c>
@@ -8070,7 +8084,7 @@
         <v>52313.34</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>66</v>
       </c>
@@ -8102,7 +8116,7 @@
         <v>59865.23</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>66</v>
       </c>
@@ -8134,7 +8148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>66</v>
       </c>
@@ -8166,7 +8180,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>66</v>
       </c>
@@ -8198,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>66</v>
       </c>
@@ -8230,7 +8244,7 @@
         <v>2522.69</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>66</v>
       </c>
@@ -8262,7 +8276,7 @@
         <v>110476.66</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>66</v>
       </c>
@@ -8294,7 +8308,7 @@
         <v>390534.13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>66</v>
       </c>
@@ -8326,7 +8340,7 @@
         <v>109790.06</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>66</v>
       </c>
@@ -8358,7 +8372,7 @@
         <v>266.63</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>66</v>
       </c>
@@ -8390,7 +8404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>66</v>
       </c>
@@ -8422,7 +8436,7 @@
         <v>915.22</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>66</v>
       </c>
@@ -8454,7 +8468,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>66</v>
       </c>
@@ -8486,7 +8500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>66</v>
       </c>
@@ -8518,7 +8532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>66</v>
       </c>
@@ -8550,7 +8564,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>66</v>
       </c>
@@ -8582,7 +8596,7 @@
         <v>173.67</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>66</v>
       </c>
@@ -8614,7 +8628,7 @@
         <v>9379.51</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>66</v>
       </c>
@@ -8646,7 +8660,7 @@
         <v>5040.29</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>66</v>
       </c>
@@ -8678,7 +8692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>66</v>
       </c>
@@ -8710,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>66</v>
       </c>
@@ -8742,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>66</v>
       </c>
@@ -8774,7 +8788,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>66</v>
       </c>
@@ -8806,7 +8820,7 @@
         <v>42.89</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>66</v>
       </c>
@@ -8838,7 +8852,7 @@
         <v>87456.89</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>66</v>
       </c>
@@ -8870,7 +8884,7 @@
         <v>1465131.12</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>66</v>
       </c>
@@ -8902,7 +8916,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>66</v>
       </c>
@@ -8934,7 +8948,7 @@
         <v>2687.98</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -8966,7 +8980,7 @@
         <v>19951</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>66</v>
       </c>
@@ -8998,7 +9012,7 @@
         <v>1210.67</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>66</v>
       </c>
@@ -9030,7 +9044,7 @@
         <v>274751.33</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>66</v>
       </c>
@@ -9062,7 +9076,7 @@
         <v>156551.87</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>66</v>
       </c>
@@ -9094,7 +9108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -9126,7 +9140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>66</v>
       </c>
@@ -9158,7 +9172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>66</v>
       </c>
@@ -9190,7 +9204,7 @@
         <v>754.64</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>66</v>
       </c>
@@ -9222,7 +9236,7 @@
         <v>8412.84</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>66</v>
       </c>
@@ -9254,7 +9268,7 @@
         <v>61416.69</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>66</v>
       </c>
@@ -9286,7 +9300,7 @@
         <v>110379.85</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>66</v>
       </c>
@@ -9318,7 +9332,7 @@
         <v>435.25</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>66</v>
       </c>
@@ -9350,7 +9364,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -9382,7 +9396,7 @@
         <v>477.78</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>66</v>
       </c>
@@ -9414,7 +9428,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>66</v>
       </c>
@@ -9446,7 +9460,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>66</v>
       </c>
@@ -9478,7 +9492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>66</v>
       </c>
@@ -9510,7 +9524,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>66</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>66</v>
       </c>
@@ -9574,7 +9588,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>66</v>
       </c>
@@ -9606,7 +9620,7 @@
         <v>449.61</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>66</v>
       </c>
@@ -9638,7 +9652,7 @@
         <v>2266.3200000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>66</v>
       </c>
@@ -9670,7 +9684,7 @@
         <v>885.98</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>66</v>
       </c>
@@ -9702,7 +9716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>66</v>
       </c>
@@ -9734,7 +9748,7 @@
         <v>115550.98</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>66</v>
       </c>
@@ -9766,7 +9780,7 @@
         <v>299341.64</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>66</v>
       </c>
@@ -9798,7 +9812,7 @@
         <v>371920.14</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>66</v>
       </c>
@@ -9830,7 +9844,7 @@
         <v>212.48</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>66</v>
       </c>
@@ -9862,7 +9876,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>66</v>
       </c>
@@ -9894,7 +9908,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>66</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>1019.44</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>66</v>
       </c>
@@ -9958,7 +9972,7 @@
         <v>679.18</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>66</v>
       </c>
@@ -9990,7 +10004,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>66</v>
       </c>
@@ -10022,7 +10036,7 @@
         <v>57552.19</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>66</v>
       </c>
@@ -10054,7 +10068,7 @@
         <v>356645.55</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>66</v>
       </c>
@@ -10086,7 +10100,7 @@
         <v>437299.32</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>66</v>
       </c>
@@ -10118,7 +10132,7 @@
         <v>48.27</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>66</v>
       </c>
@@ -10150,7 +10164,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>66</v>
       </c>
@@ -10182,7 +10196,7 @@
         <v>173163.42</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>66</v>
       </c>
@@ -10214,7 +10228,7 @@
         <v>4381.45</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>66</v>
       </c>
@@ -10246,7 +10260,7 @@
         <v>110238.73</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>66</v>
       </c>
@@ -10278,7 +10292,7 @@
         <v>412.34</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>66</v>
       </c>
@@ -10310,7 +10324,7 @@
         <v>336150.18</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>66</v>
       </c>
@@ -10342,7 +10356,7 @@
         <v>2730.6</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>66</v>
       </c>
@@ -10374,7 +10388,7 @@
         <v>133625.87</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>66</v>
       </c>
@@ -10406,7 +10420,7 @@
         <v>24970.76</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>66</v>
       </c>
@@ -10438,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>66</v>
       </c>
@@ -10470,7 +10484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>66</v>
       </c>
@@ -10502,7 +10516,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>66</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>114.91</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>66</v>
       </c>
@@ -10566,7 +10580,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>66</v>
       </c>
@@ -10598,7 +10612,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>66</v>
       </c>
@@ -10630,7 +10644,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>66</v>
       </c>
@@ -10662,7 +10676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>66</v>
       </c>
@@ -10694,7 +10708,7 @@
         <v>443.66</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>66</v>
       </c>
@@ -10726,7 +10740,7 @@
         <v>870.7</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>66</v>
       </c>
@@ -10758,7 +10772,7 @@
         <v>3916.22</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>66</v>
       </c>
@@ -10790,7 +10804,7 @@
         <v>942.44</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>66</v>
       </c>
@@ -10822,7 +10836,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>66</v>
       </c>
@@ -10854,7 +10868,7 @@
         <v>48.94</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>66</v>
       </c>
@@ -10886,7 +10900,7 @@
         <v>487.59</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>66</v>
       </c>
@@ -10918,7 +10932,7 @@
         <v>6659.86</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>66</v>
       </c>
@@ -10950,7 +10964,7 @@
         <v>104502.91</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>66</v>
       </c>
@@ -10982,7 +10996,7 @@
         <v>92991.98</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>66</v>
       </c>
@@ -11014,7 +11028,7 @@
         <v>111.95</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>66</v>
       </c>
@@ -11046,7 +11060,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>66</v>
       </c>
@@ -11078,7 +11092,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>66</v>
       </c>
@@ -11110,7 +11124,7 @@
         <v>96.74</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>66</v>
       </c>
@@ -11142,7 +11156,7 @@
         <v>295.66000000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>66</v>
       </c>
@@ -11174,7 +11188,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>66</v>
       </c>
@@ -11206,7 +11220,7 @@
         <v>451.77</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>66</v>
       </c>
@@ -11238,7 +11252,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>66</v>
       </c>
@@ -11270,7 +11284,7 @@
         <v>68.28</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>66</v>
       </c>
@@ -11302,7 +11316,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>66</v>
       </c>
@@ -11334,7 +11348,7 @@
         <v>1440.79</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>66</v>
       </c>
@@ -11366,7 +11380,7 @@
         <v>31798.43</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>66</v>
       </c>
@@ -11398,7 +11412,7 @@
         <v>15811.9</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>66</v>
       </c>
@@ -11430,7 +11444,7 @@
         <v>24168.54</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>66</v>
       </c>
@@ -11462,7 +11476,7 @@
         <v>115933.29</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>66</v>
       </c>
@@ -11494,7 +11508,7 @@
         <v>151962.01</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>66</v>
       </c>
@@ -11526,7 +11540,7 @@
         <v>77998.97</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>66</v>
       </c>
@@ -11558,7 +11572,7 @@
         <v>33105.71</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>66</v>
       </c>
@@ -11590,7 +11604,7 @@
         <v>40.58</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>66</v>
       </c>
@@ -11622,7 +11636,7 @@
         <v>1554.41</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>66</v>
       </c>
@@ -11654,7 +11668,7 @@
         <v>6435.69</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>66</v>
       </c>
@@ -11686,7 +11700,7 @@
         <v>20435.240000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>66</v>
       </c>
@@ -11718,7 +11732,7 @@
         <v>692723.34</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>66</v>
       </c>
@@ -11750,7 +11764,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>66</v>
       </c>
@@ -11782,7 +11796,7 @@
         <v>281.23</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>66</v>
       </c>
@@ -11814,7 +11828,7 @@
         <v>11971.54</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>66</v>
       </c>
@@ -11846,7 +11860,7 @@
         <v>128557.57</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>66</v>
       </c>
@@ -11878,7 +11892,7 @@
         <v>362181.84</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>66</v>
       </c>
@@ -11910,7 +11924,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>66</v>
       </c>
@@ -11942,7 +11956,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>66</v>
       </c>
@@ -11974,7 +11988,7 @@
         <v>1567.01</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>66</v>
       </c>
@@ -12006,7 +12020,7 @@
         <v>74105.259999999995</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>66</v>
       </c>
@@ -12038,7 +12052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>66</v>
       </c>
@@ -12070,7 +12084,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>66</v>
       </c>
@@ -12102,7 +12116,7 @@
         <v>1158.67</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>66</v>
       </c>
@@ -12134,7 +12148,7 @@
         <v>174752.36</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>66</v>
       </c>
@@ -12166,7 +12180,7 @@
         <v>5386950.2599999998</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>66</v>
       </c>
@@ -12198,7 +12212,7 @@
         <v>46664.72</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>66</v>
       </c>
@@ -12230,7 +12244,7 @@
         <v>397539.63</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>66</v>
       </c>
@@ -12262,7 +12276,7 @@
         <v>58622.2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>66</v>
       </c>
@@ -12294,7 +12308,7 @@
         <v>555050.81000000006</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>66</v>
       </c>
@@ -12326,7 +12340,7 @@
         <v>1030.19</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>66</v>
       </c>
@@ -12358,7 +12372,7 @@
         <v>351.09</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>66</v>
       </c>
@@ -12390,7 +12404,7 @@
         <v>884209.54</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>66</v>
       </c>
@@ -12422,7 +12436,7 @@
         <v>2622.55</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>66</v>
       </c>
@@ -12454,7 +12468,7 @@
         <v>59341.85</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>66</v>
       </c>
@@ -12486,7 +12500,7 @@
         <v>25965.95</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>66</v>
       </c>
@@ -12518,7 +12532,7 @@
         <v>45.51</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>66</v>
       </c>
@@ -12550,7 +12564,7 @@
         <v>5328.86</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>66</v>
       </c>
@@ -12582,7 +12596,7 @@
         <v>126130.52</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>66</v>
       </c>
@@ -12614,7 +12628,7 @@
         <v>155160.98000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>66</v>
       </c>
@@ -12646,7 +12660,7 @@
         <v>1049494.8600000001</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>66</v>
       </c>
@@ -12678,7 +12692,7 @@
         <v>5151655.1900000004</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>66</v>
       </c>
@@ -12710,7 +12724,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>66</v>
       </c>
@@ -12742,7 +12756,7 @@
         <v>7775.04</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>66</v>
       </c>
@@ -12774,7 +12788,7 @@
         <v>133621.62</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>66</v>
       </c>
@@ -12806,7 +12820,7 @@
         <v>757511.47</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>66</v>
       </c>
@@ -12838,7 +12852,7 @@
         <v>470751.5</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>66</v>
       </c>
@@ -12870,7 +12884,7 @@
         <v>57384.18</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>66</v>
       </c>
@@ -12902,7 +12916,7 @@
         <v>1430.25</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>66</v>
       </c>
@@ -12934,7 +12948,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>66</v>
       </c>
@@ -12966,7 +12980,7 @@
         <v>743.96</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>66</v>
       </c>
@@ -12998,7 +13012,7 @@
         <v>901.68</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>66</v>
       </c>
@@ -13030,7 +13044,7 @@
         <v>2953.96</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>66</v>
       </c>
@@ -13062,7 +13076,7 @@
         <v>241134.61</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>66</v>
       </c>
@@ -13094,7 +13108,7 @@
         <v>149161.06</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>66</v>
       </c>
@@ -13126,7 +13140,7 @@
         <v>40.85</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>66</v>
       </c>
@@ -13158,7 +13172,7 @@
         <v>206.48</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>66</v>
       </c>
@@ -13190,7 +13204,7 @@
         <v>997.7</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>66</v>
       </c>
@@ -13222,7 +13236,7 @@
         <v>404.75</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>66</v>
       </c>
@@ -13254,7 +13268,7 @@
         <v>155236.82</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>66</v>
       </c>
@@ -13286,7 +13300,7 @@
         <v>777.15</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>66</v>
       </c>
@@ -13318,7 +13332,7 @@
         <v>4051.1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>66</v>
       </c>
@@ -13350,7 +13364,7 @@
         <v>144.34</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>66</v>
       </c>
@@ -13382,7 +13396,7 @@
         <v>782.62</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -13414,7 +13428,7 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>66</v>
       </c>
@@ -13446,7 +13460,7 @@
         <v>311.75</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>66</v>
       </c>
@@ -13478,7 +13492,7 @@
         <v>1393.58</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>66</v>
       </c>
@@ -13510,7 +13524,7 @@
         <v>394515.14</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>66</v>
       </c>
@@ -13542,7 +13556,7 @@
         <v>1083058.24</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>66</v>
       </c>
@@ -13574,7 +13588,7 @@
         <v>112214.39999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -13606,7 +13620,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>66</v>
       </c>
@@ -13638,7 +13652,7 @@
         <v>39980.17</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>66</v>
       </c>
@@ -13670,7 +13684,7 @@
         <v>101564.22</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>66</v>
       </c>
@@ -13702,7 +13716,7 @@
         <v>280773.53999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>66</v>
       </c>
@@ -13734,7 +13748,7 @@
         <v>455007.01</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>66</v>
       </c>
@@ -13766,7 +13780,7 @@
         <v>1211459.1100000001</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>66</v>
       </c>
@@ -13798,7 +13812,7 @@
         <v>96.55</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>66</v>
       </c>
@@ -13830,7 +13844,7 @@
         <v>59150.81</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>66</v>
       </c>
@@ -13862,7 +13876,7 @@
         <v>246650.49</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>66</v>
       </c>
@@ -13894,7 +13908,7 @@
         <v>227669.64</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>66</v>
       </c>
@@ -13926,7 +13940,7 @@
         <v>6132.71</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>66</v>
       </c>
@@ -13958,7 +13972,7 @@
         <v>151.41999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>66</v>
       </c>
@@ -13990,7 +14004,7 @@
         <v>16085.77</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>66</v>
       </c>
@@ -14022,7 +14036,7 @@
         <v>142619.53</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>66</v>
       </c>
@@ -14054,7 +14068,7 @@
         <v>26554.880000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>66</v>
       </c>
@@ -14086,7 +14100,7 @@
         <v>93422.02</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>66</v>
       </c>
@@ -14118,7 +14132,7 @@
         <v>146172.26999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>66</v>
       </c>
@@ -14150,7 +14164,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>66</v>
       </c>
@@ -14182,7 +14196,7 @@
         <v>663.83</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>66</v>
       </c>
@@ -14214,7 +14228,7 @@
         <v>57659.45</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>66</v>
       </c>
@@ -14246,7 +14260,7 @@
         <v>9996.5499999999993</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>66</v>
       </c>
@@ -14278,7 +14292,7 @@
         <v>13934.03</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>66</v>
       </c>
@@ -14310,7 +14324,7 @@
         <v>1930.48</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>66</v>
       </c>
@@ -14342,7 +14356,7 @@
         <v>50053.760000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>66</v>
       </c>
@@ -14374,7 +14388,7 @@
         <v>20331.599999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>66</v>
       </c>
@@ -14406,7 +14420,7 @@
         <v>34093.19</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>66</v>
       </c>
@@ -14438,7 +14452,7 @@
         <v>1321.3</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>66</v>
       </c>
@@ -14470,7 +14484,7 @@
         <v>4894.1099999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>66</v>
       </c>
@@ -14502,7 +14516,7 @@
         <v>47187.91</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>66</v>
       </c>
@@ -14534,7 +14548,7 @@
         <v>502.08</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>66</v>
       </c>
@@ -14566,7 +14580,7 @@
         <v>205.11</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>66</v>
       </c>
@@ -14598,7 +14612,7 @@
         <v>6540.81</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>66</v>
       </c>
@@ -14630,7 +14644,7 @@
         <v>1904.41</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>66</v>
       </c>
@@ -14662,7 +14676,7 @@
         <v>27334.33</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>66</v>
       </c>
@@ -14694,7 +14708,7 @@
         <v>3759.31</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>66</v>
       </c>
@@ -14726,7 +14740,7 @@
         <v>18471.39</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>66</v>
       </c>
@@ -14758,7 +14772,7 @@
         <v>192398.53</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>66</v>
       </c>
@@ -14790,7 +14804,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>66</v>
       </c>
@@ -14822,7 +14836,7 @@
         <v>152.94999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>66</v>
       </c>
@@ -14854,7 +14868,7 @@
         <v>5223.05</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>66</v>
       </c>
@@ -14886,7 +14900,7 @@
         <v>1160.6199999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>66</v>
       </c>
@@ -14918,7 +14932,7 @@
         <v>5548.02</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>66</v>
       </c>
@@ -14950,7 +14964,7 @@
         <v>32730.69</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>66</v>
       </c>
@@ -14982,7 +14996,7 @@
         <v>253.047</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>66</v>
       </c>
@@ -15014,7 +15028,7 @@
         <v>453.99</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>66</v>
       </c>
@@ -15046,7 +15060,7 @@
         <v>923.553</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>66</v>
       </c>
@@ -15078,7 +15092,7 @@
         <v>3878.2629999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>66</v>
       </c>
@@ -15110,7 +15124,7 @@
         <v>188450.71</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>66</v>
       </c>
@@ -15142,7 +15156,7 @@
         <v>251.97</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>66</v>
       </c>
@@ -15174,7 +15188,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>66</v>
       </c>
@@ -15206,7 +15220,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>66</v>
       </c>
@@ -15238,7 +15252,7 @@
         <v>1074.68</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>66</v>
       </c>
@@ -15270,7 +15284,7 @@
         <v>499.5</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>66</v>
       </c>
@@ -15302,7 +15316,7 @@
         <v>143.19</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>66</v>
       </c>
@@ -15334,7 +15348,7 @@
         <v>113.94199999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>66</v>
       </c>
@@ -15366,7 +15380,7 @@
         <v>6429.9179999999997</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>66</v>
       </c>
@@ -15398,7 +15412,7 @@
         <v>5027.09</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>66</v>
       </c>
@@ -15430,7 +15444,7 @@
         <v>1905.87</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>66</v>
       </c>
@@ -15462,7 +15476,7 @@
         <v>263.303</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>66</v>
       </c>
@@ -15494,7 +15508,7 @@
         <v>12487.012000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>66</v>
       </c>
@@ -15526,7 +15540,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>66</v>
       </c>
@@ -15558,7 +15572,7 @@
         <v>14913.112999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>66</v>
       </c>
@@ -15590,7 +15604,7 @@
         <v>29709.053</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>66</v>
       </c>
@@ -15622,7 +15636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>66</v>
       </c>
@@ -15654,7 +15668,7 @@
         <v>9884.7379999999994</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>66</v>
       </c>
@@ -15686,7 +15700,7 @@
         <v>12834.876</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>66</v>
       </c>
@@ -15718,7 +15732,7 @@
         <v>110.611</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>66</v>
       </c>
@@ -15750,7 +15764,7 @@
         <v>220.25700000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>66</v>
       </c>
@@ -15782,7 +15796,7 @@
         <v>2002.058</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>66</v>
       </c>
@@ -15814,7 +15828,7 @@
         <v>134341.07999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>66</v>
       </c>
@@ -15846,7 +15860,7 @@
         <v>572008.56299999997</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>66</v>
       </c>
@@ -15878,7 +15892,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>66</v>
       </c>
@@ -15910,7 +15924,7 @@
         <v>85.47</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>66</v>
       </c>
@@ -15942,7 +15956,7 @@
         <v>55410.839</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>66</v>
       </c>
@@ -15974,7 +15988,7 @@
         <v>585662.16500000004</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>66</v>
       </c>
@@ -16006,7 +16020,7 @@
         <v>548665.15599999996</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>66</v>
       </c>
@@ -16038,7 +16052,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>66</v>
       </c>
@@ -16070,7 +16084,7 @@
         <v>1905.87</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>66</v>
       </c>
@@ -16102,7 +16116,7 @@
         <v>60138.601999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>66</v>
       </c>
@@ -16134,7 +16148,7 @@
         <v>4940.6099999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>66</v>
       </c>
@@ -16166,7 +16180,7 @@
         <v>1006.825</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>66</v>
       </c>
@@ -16198,7 +16212,7 @@
         <v>12159.376</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>66</v>
       </c>
@@ -16230,7 +16244,7 @@
         <v>29976.679</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>66</v>
       </c>
@@ -16262,7 +16276,7 @@
         <v>2501.373</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>66</v>
       </c>
@@ -16294,7 +16308,7 @@
         <v>575.95699999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>66</v>
       </c>
@@ -16326,7 +16340,7 @@
         <v>6900.87</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>66</v>
       </c>
@@ -16358,7 +16372,7 @@
         <v>1861.47</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>66</v>
       </c>
@@ -16390,7 +16404,7 @@
         <v>548233.97</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>66</v>
       </c>
@@ -16422,7 +16436,7 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>66</v>
       </c>
@@ -16454,7 +16468,7 @@
         <v>91.02</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>66</v>
       </c>
@@ -16486,7 +16500,7 @@
         <v>19188.148000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>66</v>
       </c>
@@ -16518,7 +16532,7 @@
         <v>266738.24200000003</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>66</v>
       </c>
@@ -16550,7 +16564,7 @@
         <v>265993.22499999998</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>66</v>
       </c>
@@ -16582,7 +16596,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>66</v>
       </c>
@@ -16614,7 +16628,7 @@
         <v>265.29000000000002</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>66</v>
       </c>
@@ -16646,7 +16660,7 @@
         <v>1306.47</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>66</v>
       </c>
@@ -16678,7 +16692,7 @@
         <v>734.82</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>66</v>
       </c>
@@ -16710,7 +16724,7 @@
         <v>34.298999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>66</v>
       </c>
@@ -16742,7 +16756,7 @@
         <v>549.45000000000005</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>66</v>
       </c>
@@ -16774,7 +16788,7 @@
         <v>9560.9069999999992</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>66</v>
       </c>
@@ -16806,7 +16820,7 @@
         <v>8072.8329999999996</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>66</v>
       </c>
@@ -16838,7 +16852,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>66</v>
       </c>
@@ -16870,7 +16884,7 @@
         <v>10951</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>66</v>
       </c>
@@ -16902,7 +16916,7 @@
         <v>13493</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>66</v>
       </c>
@@ -16934,7 +16948,7 @@
         <v>9563</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>66</v>
       </c>
@@ -16966,7 +16980,7 @@
         <v>182861</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>66</v>
       </c>
@@ -16998,7 +17012,7 @@
         <v>592987</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>66</v>
       </c>
@@ -17030,7 +17044,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>66</v>
       </c>
@@ -17062,7 +17076,7 @@
         <v>53224</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>66</v>
       </c>
@@ -17094,7 +17108,7 @@
         <v>19718</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>66</v>
       </c>
@@ -17126,7 +17140,7 @@
         <v>18476</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>66</v>
       </c>
@@ -17158,7 +17172,7 @@
         <v>433393</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>66</v>
       </c>
@@ -17190,7 +17204,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>66</v>
       </c>
@@ -17222,7 +17236,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>66</v>
       </c>
@@ -17254,7 +17268,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>66</v>
       </c>
@@ -17286,7 +17300,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>66</v>
       </c>
@@ -17318,7 +17332,7 @@
         <v>53798</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>66</v>
       </c>
@@ -17350,7 +17364,7 @@
         <v>21181</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>66</v>
       </c>
@@ -17382,7 +17396,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>66</v>
       </c>
@@ -17414,7 +17428,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>66</v>
       </c>
@@ -17446,7 +17460,7 @@
         <v>55062</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>66</v>
       </c>
@@ -17478,7 +17492,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>66</v>
       </c>
@@ -17510,7 +17524,7 @@
         <v>59721</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>66</v>
       </c>
@@ -17542,7 +17556,7 @@
         <v>47026</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>66</v>
       </c>
@@ -17574,7 +17588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>66</v>
       </c>
@@ -17606,7 +17620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>66</v>
       </c>
@@ -17638,7 +17652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>66</v>
       </c>
@@ -17670,7 +17684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>66</v>
       </c>
@@ -17702,7 +17716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>66</v>
       </c>
@@ -17734,7 +17748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>66</v>
       </c>
@@ -17766,7 +17780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>66</v>
       </c>
@@ -17798,7 +17812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>66</v>
       </c>
@@ -17830,7 +17844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>66</v>
       </c>
@@ -17862,7 +17876,7 @@
         <v>123764</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>66</v>
       </c>
@@ -17894,7 +17908,7 @@
         <v>571018.54</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>66</v>
       </c>
@@ -17926,7 +17940,7 @@
         <v>12279.12</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>66</v>
       </c>
@@ -17958,7 +17972,7 @@
         <v>49802.7</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>66</v>
       </c>
@@ -17990,7 +18004,7 @@
         <v>149992.70000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>66</v>
       </c>
@@ -18022,7 +18036,7 @@
         <v>230078.99</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>66</v>
       </c>
@@ -18054,7 +18068,7 @@
         <v>37206.19</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>66</v>
       </c>
@@ -18086,7 +18100,7 @@
         <v>20738.8</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>66</v>
       </c>
@@ -18118,7 +18132,7 @@
         <v>250270.99</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>66</v>
       </c>
@@ -18150,7 +18164,7 @@
         <v>18720.8</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>66</v>
       </c>
@@ -18182,7 +18196,7 @@
         <v>7861.33</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>66</v>
       </c>
@@ -18214,7 +18228,7 @@
         <v>1626996.95</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>66</v>
       </c>
@@ -18246,7 +18260,7 @@
         <v>774974.06</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>66</v>
       </c>
@@ -18278,7 +18292,7 @@
         <v>22931.040000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>66</v>
       </c>
@@ -18310,7 +18324,7 @@
         <v>5898222.0300000003</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>66</v>
       </c>
@@ -18342,7 +18356,7 @@
         <v>141849.47</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>66</v>
       </c>
@@ -18374,7 +18388,7 @@
         <v>291370.94</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>66</v>
       </c>
@@ -18406,7 +18420,7 @@
         <v>540047.23</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>66</v>
       </c>
@@ -18438,7 +18452,7 @@
         <v>878.49</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>66</v>
       </c>
@@ -18470,7 +18484,7 @@
         <v>166547.62</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>66</v>
       </c>
@@ -18502,7 +18516,7 @@
         <v>4493645.8099999996</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>66</v>
       </c>
@@ -18534,7 +18548,7 @@
         <v>2780.52</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>66</v>
       </c>
@@ -18566,7 +18580,7 @@
         <v>1047040.73</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>66</v>
       </c>
@@ -18598,7 +18612,7 @@
         <v>258831.73</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>66</v>
       </c>
@@ -18630,7 +18644,7 @@
         <v>4176.2299999999996</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>66</v>
       </c>
@@ -18662,7 +18676,7 @@
         <v>12804.93</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>66</v>
       </c>
@@ -18694,7 +18708,7 @@
         <v>6062.76</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>66</v>
       </c>
@@ -18726,7 +18740,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>66</v>
       </c>
@@ -18758,7 +18772,7 @@
         <v>247758.16</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>66</v>
       </c>
@@ -18790,7 +18804,7 @@
         <v>780517.51</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>66</v>
       </c>
@@ -18822,7 +18836,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>66</v>
       </c>
@@ -18854,7 +18868,7 @@
         <v>83503.960000000006</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>66</v>
       </c>
@@ -18886,7 +18900,7 @@
         <v>714428.08</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>66</v>
       </c>
@@ -18918,7 +18932,7 @@
         <v>1765741.79</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>66</v>
       </c>
@@ -18950,7 +18964,7 @@
         <v>245249.57</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>66</v>
       </c>
@@ -18982,7 +18996,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>66</v>
       </c>
@@ -19014,7 +19028,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>66</v>
       </c>
@@ -19046,7 +19060,7 @@
         <v>1616486.02</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>66</v>
       </c>
@@ -19078,7 +19092,7 @@
         <v>11631.43</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>66</v>
       </c>
@@ -19110,7 +19124,7 @@
         <v>23142.67</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>66</v>
       </c>
@@ -19142,7 +19156,7 @@
         <v>11509.63</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>66</v>
       </c>
@@ -19174,7 +19188,7 @@
         <v>279630.21999999997</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>66</v>
       </c>
@@ -19206,7 +19220,7 @@
         <v>665071.86</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>66</v>
       </c>
@@ -19238,7 +19252,7 @@
         <v>791026.42</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>66</v>
       </c>
@@ -19270,7 +19284,7 @@
         <v>99439.83</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>66</v>
       </c>
@@ -19302,7 +19316,7 @@
         <v>712.99</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>66</v>
       </c>
@@ -19334,7 +19348,7 @@
         <v>78280.2</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>66</v>
       </c>
@@ -19366,7 +19380,7 @@
         <v>1810.89</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>66</v>
       </c>
@@ -19398,7 +19412,7 @@
         <v>611.17999999999995</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>66</v>
       </c>
@@ -19430,7 +19444,7 @@
         <v>148.07</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>66</v>
       </c>
@@ -19462,7 +19476,7 @@
         <v>4326.21</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>66</v>
       </c>
@@ -19494,7 +19508,7 @@
         <v>6697.77</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>66</v>
       </c>
@@ -19526,7 +19540,7 @@
         <v>68559.16</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>66</v>
       </c>
@@ -19558,7 +19572,7 @@
         <v>1238729.97</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>66</v>
       </c>
@@ -19590,7 +19604,7 @@
         <v>69942.89</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>66</v>
       </c>
@@ -19622,7 +19636,7 @@
         <v>238857</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>66</v>
       </c>
@@ -19654,7 +19668,7 @@
         <v>67450.48</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>66</v>
       </c>
@@ -19686,7 +19700,7 @@
         <v>53654.96</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>66</v>
       </c>
@@ -19718,7 +19732,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>66</v>
       </c>
@@ -19750,7 +19764,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>66</v>
       </c>
@@ -19782,7 +19796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>66</v>
       </c>
@@ -19814,7 +19828,7 @@
         <v>755.2</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>66</v>
       </c>
@@ -19846,7 +19860,7 @@
         <v>72374.100000000006</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>66</v>
       </c>
@@ -19878,7 +19892,7 @@
         <v>170317.79</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>66</v>
       </c>
@@ -19910,7 +19924,7 @@
         <v>500557.22</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>66</v>
       </c>
@@ -19942,7 +19956,7 @@
         <v>2703.48</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>66</v>
       </c>
@@ -19974,7 +19988,7 @@
         <v>243.06</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>66</v>
       </c>
@@ -20006,7 +20020,7 @@
         <v>8586.15</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>66</v>
       </c>
@@ -20038,7 +20052,7 @@
         <v>92359.21</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>66</v>
       </c>
@@ -20070,7 +20084,7 @@
         <v>5898.21</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>66</v>
       </c>
@@ -20102,7 +20116,7 @@
         <v>29832.18</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>66</v>
       </c>
@@ -20134,7 +20148,7 @@
         <v>747.9</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>66</v>
       </c>
@@ -20166,7 +20180,7 @@
         <v>767.83</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>66</v>
       </c>
@@ -20198,7 +20212,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>66</v>
       </c>
@@ -20230,7 +20244,7 @@
         <v>957.85</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>66</v>
       </c>
@@ -20262,7 +20276,7 @@
         <v>3339.55</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>66</v>
       </c>
@@ -20294,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>66</v>
       </c>
@@ -20326,7 +20340,7 @@
         <v>2717.87</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>66</v>
       </c>
@@ -20358,7 +20372,7 @@
         <v>1564.5</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>66</v>
       </c>
@@ -20390,7 +20404,7 @@
         <v>782.53</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>66</v>
       </c>
@@ -20422,7 +20436,7 @@
         <v>15292.24</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>79</v>
       </c>
@@ -20454,7 +20468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>79</v>
       </c>
@@ -20486,7 +20500,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>79</v>
       </c>
@@ -20518,7 +20532,7 @@
         <v>253622.29</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>79</v>
       </c>
@@ -20550,7 +20564,7 @@
         <v>635548</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -20582,7 +20596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -20614,7 +20628,7 @@
         <v>19151.96</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>79</v>
       </c>
@@ -20646,7 +20660,7 @@
         <v>65925</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>79</v>
       </c>
@@ -20678,7 +20692,7 @@
         <v>501.63</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>79</v>
       </c>
@@ -20710,7 +20724,7 @@
         <v>300.69400000000002</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>79</v>
       </c>
@@ -20742,7 +20756,7 @@
         <v>18304.75</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>79</v>
       </c>
@@ -20774,7 +20788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>79</v>
       </c>
@@ -20806,7 +20820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>79</v>
       </c>
@@ -20838,7 +20852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>79</v>
       </c>
@@ -20870,7 +20884,7 @@
         <v>786.01</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>79</v>
       </c>
@@ -20902,7 +20916,7 @@
         <v>984.59900000000005</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>79</v>
       </c>
@@ -20934,7 +20948,7 @@
         <v>16062</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>79</v>
       </c>
@@ -20966,7 +20980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>79</v>
       </c>
@@ -20998,7 +21012,7 @@
         <v>148289</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>79</v>
       </c>
@@ -21030,7 +21044,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>79</v>
       </c>
@@ -21062,7 +21076,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>79</v>
       </c>
@@ -21094,7 +21108,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>79</v>
       </c>
@@ -21126,7 +21140,7 @@
         <v>346.59</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>79</v>
       </c>
@@ -21158,7 +21172,7 @@
         <v>3536.84</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>79</v>
       </c>
@@ -21190,7 +21204,7 @@
         <v>103.57</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>79</v>
       </c>
@@ -21222,7 +21236,7 @@
         <v>95.09</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>79</v>
       </c>
@@ -21254,7 +21268,7 @@
         <v>179.61</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>79</v>
       </c>
@@ -21286,7 +21300,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>79</v>
       </c>
@@ -21318,7 +21332,7 @@
         <v>173.94</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>79</v>
       </c>
@@ -21350,7 +21364,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>79</v>
       </c>
@@ -21382,7 +21396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>79</v>
       </c>
@@ -21414,7 +21428,7 @@
         <v>41433.93</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>79</v>
       </c>
@@ -21446,7 +21460,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>79</v>
       </c>
@@ -21478,7 +21492,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>79</v>
       </c>
@@ -21510,7 +21524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>79</v>
       </c>
@@ -21542,7 +21556,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>79</v>
       </c>
@@ -21574,7 +21588,7 @@
         <v>2730.7</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>79</v>
       </c>
@@ -21606,7 +21620,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>79</v>
       </c>
@@ -21638,7 +21652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>79</v>
       </c>
@@ -21670,7 +21684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>79</v>
       </c>
@@ -21702,7 +21716,7 @@
         <v>180.92</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>79</v>
       </c>
@@ -21734,7 +21748,7 @@
         <v>34958.82</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>79</v>
       </c>
@@ -21766,7 +21780,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>79</v>
       </c>
@@ -21798,7 +21812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>79</v>
       </c>
@@ -21830,7 +21844,7 @@
         <v>26271.9</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>79</v>
       </c>
@@ -21862,7 +21876,7 @@
         <v>117178.6</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>79</v>
       </c>
@@ -21894,7 +21908,7 @@
         <v>187063</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>79</v>
       </c>
@@ -21926,7 +21940,7 @@
         <v>138203.29999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>82</v>
       </c>
@@ -21958,7 +21972,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>82</v>
       </c>
@@ -21990,7 +22004,7 @@
         <v>4159.1099999999997</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>82</v>
       </c>
@@ -22022,7 +22036,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>82</v>
       </c>
@@ -22054,7 +22068,7 @@
         <v>8118.03</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>82</v>
       </c>
@@ -22086,7 +22100,7 @@
         <v>5402.64</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>82</v>
       </c>
@@ -22118,7 +22132,7 @@
         <v>586.64</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>82</v>
       </c>
@@ -22150,7 +22164,7 @@
         <v>5340.86</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>82</v>
       </c>
@@ -22182,7 +22196,7 @@
         <v>7938.97</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>82</v>
       </c>
@@ -22214,7 +22228,7 @@
         <v>1821.4</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>82</v>
       </c>
@@ -22246,7 +22260,7 @@
         <v>56945.05</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>82</v>
       </c>
@@ -22278,7 +22292,7 @@
         <v>19787.53</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>82</v>
       </c>
@@ -22310,7 +22324,7 @@
         <v>6214.07</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>82</v>
       </c>
@@ -22342,7 +22356,7 @@
         <v>45771.97</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>82</v>
       </c>
@@ -22374,7 +22388,7 @@
         <v>54014.43</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>82</v>
       </c>
@@ -22406,7 +22420,7 @@
         <v>9737.0499999999993</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>82</v>
       </c>
@@ -22438,7 +22452,7 @@
         <v>175.23</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>82</v>
       </c>
@@ -22470,7 +22484,7 @@
         <v>2903.86</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>82</v>
       </c>
@@ -22502,7 +22516,7 @@
         <v>1654.59</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>82</v>
       </c>
@@ -22534,7 +22548,7 @@
         <v>388.07</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>82</v>
       </c>
@@ -22566,7 +22580,7 @@
         <v>10849.09</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>82</v>
       </c>
@@ -22598,7 +22612,7 @@
         <v>494.38</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>82</v>
       </c>
@@ -22630,7 +22644,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>82</v>
       </c>
@@ -22662,7 +22676,7 @@
         <v>5960.6</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>82</v>
       </c>
@@ -22694,7 +22708,7 @@
         <v>85.68</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>82</v>
       </c>
@@ -22726,7 +22740,7 @@
         <v>88.11</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>82</v>
       </c>
@@ -22758,7 +22772,7 @@
         <v>1424.42</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>82</v>
       </c>
@@ -22790,7 +22804,7 @@
         <v>11626.91</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>82</v>
       </c>
@@ -22822,7 +22836,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>82</v>
       </c>
@@ -22854,7 +22868,7 @@
         <v>4550.9799999999996</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>82</v>
       </c>
@@ -22886,7 +22900,7 @@
         <v>5355.71</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>82</v>
       </c>
@@ -22918,7 +22932,7 @@
         <v>681.28</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>82</v>
       </c>
@@ -22950,7 +22964,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>82</v>
       </c>
@@ -22982,7 +22996,7 @@
         <v>13075.54</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>82</v>
       </c>
@@ -23014,7 +23028,7 @@
         <v>2724.8</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>82</v>
       </c>
@@ -23046,7 +23060,7 @@
         <v>18275.400000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>82</v>
       </c>
@@ -23078,7 +23092,7 @@
         <v>10536.19</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>82</v>
       </c>
@@ -23110,7 +23124,7 @@
         <v>86659.39</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>82</v>
       </c>
@@ -23142,7 +23156,7 @@
         <v>24202.720000000001</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>82</v>
       </c>
@@ -23174,7 +23188,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>82</v>
       </c>
@@ -23206,7 +23220,7 @@
         <v>12700.89</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>82</v>
       </c>
@@ -23238,7 +23252,7 @@
         <v>243.43</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>82</v>
       </c>
@@ -23270,7 +23284,7 @@
         <v>17699.48</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>82</v>
       </c>
@@ -23302,7 +23316,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>82</v>
       </c>
@@ -23334,7 +23348,7 @@
         <v>42712.66</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>82</v>
       </c>
@@ -23366,7 +23380,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>82</v>
       </c>
@@ -23398,7 +23412,7 @@
         <v>19258.650000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>82</v>
       </c>
@@ -23430,7 +23444,7 @@
         <v>67171.28</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>82</v>
       </c>
@@ -23462,7 +23476,7 @@
         <v>30693.49</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>82</v>
       </c>
@@ -23494,7 +23508,7 @@
         <v>3368.18</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>82</v>
       </c>
@@ -23526,7 +23540,7 @@
         <v>964.42</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>82</v>
       </c>
@@ -23558,7 +23572,7 @@
         <v>124670.49</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>82</v>
       </c>
@@ -23590,7 +23604,7 @@
         <v>512510.53</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>82</v>
       </c>
@@ -23622,7 +23636,7 @@
         <v>436863.06</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>82</v>
       </c>
@@ -23654,7 +23668,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>82</v>
       </c>
@@ -23686,7 +23700,7 @@
         <v>14316.1</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>82</v>
       </c>
@@ -23718,7 +23732,7 @@
         <v>147912.42000000001</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>82</v>
       </c>
@@ -23750,7 +23764,7 @@
         <v>89518.99</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>82</v>
       </c>
@@ -23782,7 +23796,7 @@
         <v>320581.88</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>82</v>
       </c>
@@ -23814,7 +23828,7 @@
         <v>118106.62</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>82</v>
       </c>
@@ -23846,7 +23860,7 @@
         <v>3900.42</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>82</v>
       </c>
@@ -23878,7 +23892,7 @@
         <v>5390.27</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>82</v>
       </c>
@@ -23910,7 +23924,7 @@
         <v>51152.25</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>82</v>
       </c>
@@ -23942,7 +23956,7 @@
         <v>130653.51</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>82</v>
       </c>
@@ -23974,7 +23988,7 @@
         <v>45520.49</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>82</v>
       </c>
@@ -24006,7 +24020,7 @@
         <v>65990.929999999993</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>82</v>
       </c>
@@ -24038,7 +24052,7 @@
         <v>11408.43</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>82</v>
       </c>
@@ -24070,7 +24084,7 @@
         <v>131287.73000000001</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>82</v>
       </c>
@@ -24102,7 +24116,7 @@
         <v>33123.919999999998</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>82</v>
       </c>
@@ -24134,7 +24148,7 @@
         <v>8197.7520000000004</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>82</v>
       </c>
@@ -24166,7 +24180,7 @@
         <v>4532.18</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>82</v>
       </c>
@@ -24198,7 +24212,7 @@
         <v>23752.76</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>82</v>
       </c>
@@ -24230,7 +24244,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>82</v>
       </c>
@@ -24262,7 +24276,7 @@
         <v>30221.3</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>82</v>
       </c>
@@ -24294,7 +24308,7 @@
         <v>8459.06</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>82</v>
       </c>
@@ -24326,7 +24340,7 @@
         <v>121825.16</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>82</v>
       </c>
@@ -24358,7 +24372,7 @@
         <v>45033.18</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>82</v>
       </c>
@@ -24390,7 +24404,7 @@
         <v>32760.94</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>82</v>
       </c>
@@ -24422,7 +24436,7 @@
         <v>92691.44</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>82</v>
       </c>
@@ -24454,7 +24468,7 @@
         <v>160264.98000000001</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>82</v>
       </c>
@@ -24486,7 +24500,7 @@
         <v>318098.13799999998</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>82</v>
       </c>
@@ -24518,7 +24532,7 @@
         <v>224357.58</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>82</v>
       </c>
@@ -24550,7 +24564,7 @@
         <v>669203.92000000004</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>82</v>
       </c>
@@ -24582,7 +24596,7 @@
         <v>109723.25</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>82</v>
       </c>
@@ -24614,7 +24628,7 @@
         <v>181308.65</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>82</v>
       </c>
@@ -24646,7 +24660,7 @@
         <v>170849.92000000001</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>82</v>
       </c>
@@ -24678,7 +24692,7 @@
         <v>820630.75</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>82</v>
       </c>
@@ -24710,7 +24724,7 @@
         <v>12968.57</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>82</v>
       </c>
@@ -24742,7 +24756,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>82</v>
       </c>
@@ -24774,7 +24788,7 @@
         <v>8562</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>82</v>
       </c>
@@ -24806,7 +24820,7 @@
         <v>33232</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>82</v>
       </c>
@@ -24838,7 +24852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>82</v>
       </c>
@@ -24870,7 +24884,7 @@
         <v>82239</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>82</v>
       </c>
@@ -24902,7 +24916,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>82</v>
       </c>
@@ -24934,7 +24948,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>82</v>
       </c>
@@ -24966,7 +24980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>82</v>
       </c>
@@ -24998,7 +25012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>82</v>
       </c>
@@ -25030,7 +25044,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>82</v>
       </c>
@@ -25062,7 +25076,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>82</v>
       </c>
@@ -25094,7 +25108,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>82</v>
       </c>
@@ -25126,7 +25140,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>82</v>
       </c>
@@ -25158,7 +25172,7 @@
         <v>72562</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>82</v>
       </c>
@@ -25190,7 +25204,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>82</v>
       </c>
@@ -25222,7 +25236,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>82</v>
       </c>
@@ -25254,7 +25268,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>82</v>
       </c>
@@ -25286,7 +25300,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>82</v>
       </c>
@@ -25318,7 +25332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>82</v>
       </c>
@@ -25350,7 +25364,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>82</v>
       </c>
@@ -25382,7 +25396,7 @@
         <v>75415.42</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>82</v>
       </c>
@@ -25414,7 +25428,7 @@
         <v>8764.98</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>82</v>
       </c>
@@ -25446,7 +25460,7 @@
         <v>118155.27</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>82</v>
       </c>
@@ -25478,7 +25492,7 @@
         <v>148469.09</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>82</v>
       </c>
@@ -25510,7 +25524,7 @@
         <v>1759.8</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>82</v>
       </c>
@@ -25542,7 +25556,7 @@
         <v>1868.3</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>82</v>
       </c>
@@ -25574,7 +25588,7 @@
         <v>603.51</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>82</v>
       </c>
@@ -25606,7 +25620,7 @@
         <v>20226.419999999998</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>82</v>
       </c>
@@ -25638,7 +25652,7 @@
         <v>25096.99</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>82</v>
       </c>
@@ -25670,7 +25684,7 @@
         <v>1922.57</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>82</v>
       </c>
@@ -25702,7 +25716,7 @@
         <v>3077.59</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>82</v>
       </c>
@@ -25734,7 +25748,7 @@
         <v>17554.47</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>82</v>
       </c>
@@ -25766,7 +25780,7 @@
         <v>64860.61</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>82</v>
       </c>
@@ -25798,7 +25812,7 @@
         <v>45265.71</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>82</v>
       </c>
@@ -25830,7 +25844,7 @@
         <v>3370.53</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>82</v>
       </c>
@@ -25862,7 +25876,7 @@
         <v>4873.5600000000004</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>82</v>
       </c>
@@ -25894,7 +25908,7 @@
         <v>3293.36</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>82</v>
       </c>
@@ -25926,7 +25940,7 @@
         <v>5710.76</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>82</v>
       </c>
@@ -25958,7 +25972,7 @@
         <v>10470.61</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>82</v>
       </c>
@@ -25990,7 +26004,7 @@
         <v>918.84</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>82</v>
       </c>
@@ -26022,7 +26036,7 @@
         <v>3948.31</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>82</v>
       </c>
@@ -26054,7 +26068,7 @@
         <v>19527.919999999998</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>82</v>
       </c>
@@ -26086,7 +26100,7 @@
         <v>12191.27</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>82</v>
       </c>
@@ -26118,7 +26132,7 @@
         <v>993.51</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>82</v>
       </c>
@@ -26150,7 +26164,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>82</v>
       </c>
@@ -26182,7 +26196,7 @@
         <v>658.44</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>82</v>
       </c>
@@ -26214,7 +26228,7 @@
         <v>82561.179999999993</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>82</v>
       </c>
@@ -26246,7 +26260,7 @@
         <v>132799.10999999999</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>82</v>
       </c>
@@ -26278,7 +26292,7 @@
         <v>8845.48</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>82</v>
       </c>
@@ -26310,7 +26324,7 @@
         <v>9323.66</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>82</v>
       </c>
@@ -26342,7 +26356,7 @@
         <v>1821.44</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>82</v>
       </c>
@@ -26374,7 +26388,7 @@
         <v>115980.69</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>82</v>
       </c>
@@ -26406,7 +26420,7 @@
         <v>303664.88</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>82</v>
       </c>
@@ -26438,7 +26452,7 @@
         <v>395080.82</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>82</v>
       </c>
@@ -26470,7 +26484,7 @@
         <v>11838.41</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>82</v>
       </c>
@@ -26502,7 +26516,7 @@
         <v>7427.58</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>82</v>
       </c>
@@ -26534,7 +26548,7 @@
         <v>21118.9</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>82</v>
       </c>
@@ -26566,7 +26580,7 @@
         <v>3349.45</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>82</v>
       </c>
@@ -26598,7 +26612,7 @@
         <v>45509.120000000003</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>82</v>
       </c>
@@ -26630,7 +26644,7 @@
         <v>34809.660000000003</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>82</v>
       </c>
@@ -26662,7 +26676,7 @@
         <v>10520.42</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>82</v>
       </c>
@@ -26694,7 +26708,7 @@
         <v>8884.1200000000008</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>82</v>
       </c>
@@ -26726,7 +26740,7 @@
         <v>6404.1</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>82</v>
       </c>
@@ -26758,7 +26772,7 @@
         <v>71695.520000000004</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>82</v>
       </c>
@@ -26790,7 +26804,7 @@
         <v>98294.03</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>82</v>
       </c>
@@ -26822,7 +26836,7 @@
         <v>2887900.71</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>82</v>
       </c>
@@ -26854,7 +26868,7 @@
         <v>8331.5</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>82</v>
       </c>
@@ -26886,7 +26900,7 @@
         <v>1649.92</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>82</v>
       </c>
@@ -26918,7 +26932,7 @@
         <v>6603.99</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>82</v>
       </c>
@@ -26950,7 +26964,7 @@
         <v>763.62</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>82</v>
       </c>
@@ -26982,7 +26996,7 @@
         <v>1200668.19</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>82</v>
       </c>
@@ -27014,7 +27028,7 @@
         <v>31013.61</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>82</v>
       </c>
@@ -27046,7 +27060,7 @@
         <v>70022.350000000006</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>82</v>
       </c>
@@ -27078,7 +27092,7 @@
         <v>30810.23</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>82</v>
       </c>
@@ -27110,7 +27124,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>82</v>
       </c>
@@ -27142,7 +27156,7 @@
         <v>4500.8999999999996</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>82</v>
       </c>
@@ -27174,7 +27188,7 @@
         <v>21438.89</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>82</v>
       </c>
@@ -27206,7 +27220,7 @@
         <v>51584.68</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>82</v>
       </c>
@@ -27238,7 +27252,7 @@
         <v>146427.85999999999</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>82</v>
       </c>
@@ -27270,7 +27284,7 @@
         <v>84419.030000000013</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>82</v>
       </c>
@@ -27302,7 +27316,7 @@
         <v>3116169.28</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>82</v>
       </c>
@@ -27334,7 +27348,7 @@
         <v>53670.35</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>82</v>
       </c>
@@ -27366,7 +27380,7 @@
         <v>15565.69</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>82</v>
       </c>
@@ -27398,7 +27412,7 @@
         <v>19191.54</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>82</v>
       </c>
@@ -27430,7 +27444,7 @@
         <v>1200.29</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>82</v>
       </c>
@@ -27462,7 +27476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>82</v>
       </c>
@@ -27494,7 +27508,7 @@
         <v>1236749.28</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>82</v>
       </c>
@@ -27526,7 +27540,7 @@
         <v>5828.6</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>82</v>
       </c>
@@ -27558,7 +27572,7 @@
         <v>226045.3</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>82</v>
       </c>
@@ -27590,7 +27604,7 @@
         <v>420644.88</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>82</v>
       </c>
@@ -27622,7 +27636,7 @@
         <v>27199.919999999998</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>82</v>
       </c>
@@ -27654,7 +27668,7 @@
         <v>2303.1</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
         <v>82</v>
       </c>
@@ -27686,7 +27700,7 @@
         <v>58894.94</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
         <v>82</v>
       </c>
@@ -27718,7 +27732,7 @@
         <v>16441.25</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
         <v>82</v>
       </c>
@@ -27750,7 +27764,7 @@
         <v>455420.24</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
         <v>82</v>
       </c>
@@ -27782,7 +27796,7 @@
         <v>805756.13</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
         <v>82</v>
       </c>
@@ -27814,7 +27828,7 @@
         <v>2707597.3</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
         <v>82</v>
       </c>
@@ -27846,7 +27860,7 @@
         <v>23349.89</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
         <v>82</v>
       </c>
@@ -27878,7 +27892,7 @@
         <v>56384.12</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
         <v>82</v>
       </c>
@@ -27910,7 +27924,7 @@
         <v>18577.509999999998</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
         <v>82</v>
       </c>
@@ -27942,7 +27956,7 @@
         <v>1097184.82</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
         <v>82</v>
       </c>
@@ -27974,7 +27988,7 @@
         <v>2964.46</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>82</v>
       </c>
@@ -28006,7 +28020,7 @@
         <v>2896.48</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>82</v>
       </c>
@@ -28038,7 +28052,7 @@
         <v>1676.35</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
         <v>82</v>
       </c>
@@ -28070,7 +28084,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
         <v>82</v>
       </c>
@@ -28102,7 +28116,7 @@
         <v>8607.02</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
         <v>82</v>
       </c>
@@ -28134,7 +28148,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>82</v>
       </c>
@@ -28166,7 +28180,7 @@
         <v>121.51</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>82</v>
       </c>
@@ -28198,7 +28212,7 @@
         <v>19560.52</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>82</v>
       </c>
@@ -28230,7 +28244,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>82</v>
       </c>
@@ -28262,7 +28276,7 @@
         <v>75793.75</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
         <v>82</v>
       </c>
@@ -28294,7 +28308,7 @@
         <v>1919.84</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
         <v>82</v>
       </c>
@@ -28326,7 +28340,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
         <v>82</v>
       </c>
@@ -28358,7 +28372,7 @@
         <v>2978.7</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>82</v>
       </c>
@@ -28390,7 +28404,7 @@
         <v>215.8</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>82</v>
       </c>
@@ -28422,7 +28436,7 @@
         <v>10291.049999999999</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>82</v>
       </c>
@@ -28454,7 +28468,7 @@
         <v>2862.74</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
         <v>82</v>
       </c>
@@ -28486,7 +28500,7 @@
         <v>2163.02</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
         <v>82</v>
       </c>
@@ -28518,7 +28532,7 @@
         <v>11490.8</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
         <v>82</v>
       </c>
@@ -28550,7 +28564,7 @@
         <v>5129.5300000000007</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
         <v>82</v>
       </c>
@@ -28582,7 +28596,7 @@
         <v>259.24</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
         <v>82</v>
       </c>
@@ -28614,7 +28628,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
         <v>82</v>
       </c>
@@ -28646,7 +28660,7 @@
         <v>2360.04</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
         <v>82</v>
       </c>
@@ -28678,7 +28692,7 @@
         <v>3412.39</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
         <v>82</v>
       </c>
@@ -28710,7 +28724,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
         <v>82</v>
       </c>
@@ -28742,7 +28756,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>82</v>
       </c>
@@ -28774,7 +28788,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>82</v>
       </c>
@@ -28806,7 +28820,7 @@
         <v>67003.3</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
         <v>82</v>
       </c>
@@ -28838,7 +28852,7 @@
         <v>103795.5</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>82</v>
       </c>
@@ -28870,7 +28884,7 @@
         <v>15878.96</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
         <v>82</v>
       </c>
@@ -28902,7 +28916,7 @@
         <v>18108.61</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
         <v>82</v>
       </c>
@@ -28934,7 +28948,7 @@
         <v>44920.639999999999</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
         <v>82</v>
       </c>
@@ -28967,7 +28981,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J884" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J884" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MAC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Denmark"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="DFN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>